--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G322"/>
+  <dimension ref="A1:G262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6649,10 +6649,8 @@
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G228" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="229">
@@ -6686,10 +6684,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="G229" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G229" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -6723,10 +6719,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G230" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="231">
@@ -6760,10 +6754,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G231" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G231" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="232">
@@ -6797,10 +6789,8 @@
           <t>209.0K</t>
         </is>
       </c>
-      <c r="G232" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G232" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="233">
@@ -6834,10 +6824,8 @@
           <t>-10</t>
         </is>
       </c>
-      <c r="G233" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G233" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="234">
@@ -6871,10 +6859,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="G234" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G234" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="235">
@@ -6908,10 +6894,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="G235" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G235" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="236">
@@ -6941,10 +6925,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="G236" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G236" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="237">
@@ -6978,10 +6960,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="G237" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G237" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="238">
@@ -7011,10 +6991,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="G238" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G238" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="239">
@@ -7040,10 +7018,8 @@
       </c>
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G239" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="240">
@@ -7069,10 +7045,8 @@
       </c>
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="inlineStr"/>
-      <c r="G240" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G240" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="241">
@@ -7098,10 +7072,8 @@
       </c>
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G241" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="242">
@@ -7127,10 +7099,8 @@
       </c>
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G242" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="243">
@@ -7156,10 +7126,8 @@
       </c>
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G243" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="244">
@@ -7193,10 +7161,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="G244" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G244" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="245">
@@ -7226,10 +7192,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="G245" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G245" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="246">
@@ -7263,10 +7227,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="G246" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G246" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="247">
@@ -7300,10 +7262,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="G247" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G247" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="248">
@@ -7337,10 +7297,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="G248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G248" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="249">
@@ -7370,10 +7328,8 @@
         </is>
       </c>
       <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G249" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="250">
@@ -7399,10 +7355,8 @@
       </c>
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G250" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="251">
@@ -7428,10 +7382,8 @@
       </c>
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="inlineStr"/>
-      <c r="G251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G251" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="252">
@@ -7457,10 +7409,8 @@
       </c>
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="inlineStr"/>
-      <c r="G252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G252" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="253">
@@ -7486,48 +7436,70 @@
       </c>
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="inlineStr"/>
-      <c r="G253" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G253" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B254" t="inlineStr"/>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+        </is>
+      </c>
       <c r="C254" t="inlineStr"/>
-      <c r="D254" t="inlineStr"/>
-      <c r="E254" t="inlineStr"/>
-      <c r="F254" t="inlineStr"/>
-      <c r="G254" t="inlineStr"/>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/15</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>$6.83T</t>
-        </is>
-      </c>
+          <t>Michigan Consumer Expectations FinalJAN</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr"/>
       <c r="D255" t="inlineStr">
         <is>
-          <t>$6.85T</t>
-        </is>
-      </c>
-      <c r="E255" t="inlineStr"/>
-      <c r="F255" t="inlineStr"/>
+          <t>73.3</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>70.2</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>70.2</t>
+        </is>
+      </c>
       <c r="G255" t="inlineStr">
         <is>
           <t>3</t>
@@ -7537,187 +7509,163 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Building Permits PrelDEC</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="C256" t="inlineStr"/>
       <c r="D256" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>1.46M</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>1.48M</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Housing StartsDEC</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="C257" t="inlineStr"/>
       <c r="D257" t="inlineStr">
         <is>
-          <t>1.289M</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>1.32M</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>1.32M</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelDEC</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="C258" t="inlineStr"/>
       <c r="D258" t="inlineStr">
         <is>
-          <t>5.2%</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Housing Starts MoMDEC</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="C259" t="inlineStr"/>
       <c r="D259" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="E259" t="inlineStr"/>
       <c r="F259" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Industrial Production MoMDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="C260" t="inlineStr"/>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E260" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F260" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="D260" t="inlineStr"/>
+      <c r="E260" t="inlineStr"/>
+      <c r="F260" t="inlineStr"/>
       <c r="G260" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Capacity UtilizationDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
         </is>
       </c>
       <c r="C261" t="inlineStr"/>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="E261" t="inlineStr">
-        <is>
-          <t>77%</t>
-        </is>
-      </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>76.9%</t>
-        </is>
-      </c>
+      <c r="D261" t="inlineStr"/>
+      <c r="E261" t="inlineStr"/>
+      <c r="F261" t="inlineStr"/>
       <c r="G261" t="inlineStr">
         <is>
           <t>3</t>
@@ -7727,1491 +7675,15 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr"/>
       <c r="C262" t="inlineStr"/>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
+      <c r="D262" t="inlineStr"/>
       <c r="E262" t="inlineStr"/>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="G262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr"/>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E263" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr"/>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
-        </is>
-      </c>
-      <c r="C265" t="inlineStr"/>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>480</t>
-        </is>
-      </c>
-      <c r="E265" t="inlineStr"/>
-      <c r="F265" t="inlineStr"/>
-      <c r="G265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
-        </is>
-      </c>
-      <c r="C266" t="inlineStr"/>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>584</t>
-        </is>
-      </c>
-      <c r="E266" t="inlineStr"/>
-      <c r="F266" t="inlineStr"/>
-      <c r="G266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>Saturday January 18 2025</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr"/>
-      <c r="C267" t="inlineStr"/>
-      <c r="D267" t="inlineStr"/>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr"/>
-      <c r="G267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsNOV</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr"/>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>$159.9B</t>
-        </is>
-      </c>
-      <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentNOV</t>
-        </is>
-      </c>
-      <c r="C269" t="inlineStr"/>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
-      <c r="E269" t="inlineStr"/>
-      <c r="F269" t="inlineStr"/>
-      <c r="G269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>02:30 AM</t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsNOV</t>
-        </is>
-      </c>
-      <c r="C270" t="inlineStr"/>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
-      <c r="E270" t="inlineStr"/>
-      <c r="F270" t="inlineStr"/>
-      <c r="G270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>Monday January 20 2025</t>
-        </is>
-      </c>
-      <c r="B271" t="inlineStr"/>
-      <c r="C271" t="inlineStr"/>
-      <c r="D271" t="inlineStr"/>
-      <c r="E271" t="inlineStr"/>
-      <c r="F271" t="inlineStr"/>
-      <c r="G271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr"/>
-      <c r="C272" t="inlineStr"/>
-      <c r="D272" t="inlineStr"/>
-      <c r="E272" t="inlineStr"/>
-      <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/18</t>
-        </is>
-      </c>
-      <c r="C273" t="inlineStr"/>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C274" t="inlineStr"/>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>4.225%</t>
-        </is>
-      </c>
-      <c r="E274" t="inlineStr"/>
-      <c r="F274" t="inlineStr"/>
-      <c r="G274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C275" t="inlineStr"/>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>4.070%</t>
-        </is>
-      </c>
-      <c r="E275" t="inlineStr"/>
-      <c r="F275" t="inlineStr"/>
-      <c r="G275" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C276" t="inlineStr"/>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>4.180%</t>
-        </is>
-      </c>
-      <c r="E276" t="inlineStr"/>
-      <c r="F276" t="inlineStr"/>
-      <c r="G276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B277" t="inlineStr"/>
-      <c r="C277" t="inlineStr"/>
-      <c r="D277" t="inlineStr"/>
-      <c r="E277" t="inlineStr"/>
-      <c r="F277" t="inlineStr"/>
-      <c r="G277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJAN/17</t>
-        </is>
-      </c>
-      <c r="C278" t="inlineStr"/>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>7.09%</t>
-        </is>
-      </c>
-      <c r="E278" t="inlineStr"/>
-      <c r="F278" t="inlineStr"/>
-      <c r="G278" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsJAN/17</t>
-        </is>
-      </c>
-      <c r="C279" t="inlineStr"/>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>33.3%</t>
-        </is>
-      </c>
-      <c r="E279" t="inlineStr"/>
-      <c r="F279" t="inlineStr"/>
-      <c r="G279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="C280" t="inlineStr"/>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>224.4</t>
-        </is>
-      </c>
-      <c r="E280" t="inlineStr"/>
-      <c r="F280" t="inlineStr"/>
-      <c r="G280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="C281" t="inlineStr"/>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>575.6</t>
-        </is>
-      </c>
-      <c r="E281" t="inlineStr"/>
-      <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/17</t>
-        </is>
-      </c>
-      <c r="C282" t="inlineStr"/>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>162</t>
-        </is>
-      </c>
-      <c r="E282" t="inlineStr"/>
-      <c r="F282" t="inlineStr"/>
-      <c r="G282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="C283" t="inlineStr"/>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E283" t="inlineStr"/>
-      <c r="F283" t="inlineStr"/>
-      <c r="G283" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C284" t="inlineStr"/>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>4.210%</t>
-        </is>
-      </c>
-      <c r="E284" t="inlineStr"/>
-      <c r="F284" t="inlineStr"/>
-      <c r="G284" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C285" t="inlineStr"/>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>4.686%</t>
-        </is>
-      </c>
-      <c r="E285" t="inlineStr"/>
-      <c r="F285" t="inlineStr"/>
-      <c r="G285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>Thursday January 23 2025</t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr"/>
-      <c r="C286" t="inlineStr"/>
-      <c r="D286" t="inlineStr"/>
-      <c r="E286" t="inlineStr"/>
-      <c r="F286" t="inlineStr"/>
-      <c r="G286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="C287" t="inlineStr"/>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>-2.6M</t>
-        </is>
-      </c>
-      <c r="E287" t="inlineStr"/>
-      <c r="F287" t="inlineStr"/>
-      <c r="G287" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJAN/18</t>
-        </is>
-      </c>
-      <c r="C288" t="inlineStr"/>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>217K</t>
-        </is>
-      </c>
-      <c r="E288" t="inlineStr"/>
-      <c r="F288" t="inlineStr"/>
-      <c r="G288" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJAN/11</t>
-        </is>
-      </c>
-      <c r="C289" t="inlineStr"/>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>1859K</t>
-        </is>
-      </c>
-      <c r="E289" t="inlineStr"/>
-      <c r="F289" t="inlineStr"/>
-      <c r="G289" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJAN/18</t>
-        </is>
-      </c>
-      <c r="C290" t="inlineStr"/>
-      <c r="D290" t="inlineStr"/>
-      <c r="E290" t="inlineStr"/>
-      <c r="F290" t="inlineStr"/>
-      <c r="G290" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="C291" t="inlineStr"/>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>-258Bcf</t>
-        </is>
-      </c>
-      <c r="E291" t="inlineStr"/>
-      <c r="F291" t="inlineStr"/>
-      <c r="G291" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="C292" t="inlineStr"/>
-      <c r="D292" t="inlineStr"/>
-      <c r="E292" t="inlineStr"/>
-      <c r="F292" t="inlineStr"/>
-      <c r="G292" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="C293" t="inlineStr"/>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>5.852M</t>
-        </is>
-      </c>
-      <c r="E293" t="inlineStr"/>
-      <c r="F293" t="inlineStr"/>
-      <c r="G293" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="C294" t="inlineStr"/>
-      <c r="D294" t="inlineStr"/>
-      <c r="E294" t="inlineStr"/>
-      <c r="F294" t="inlineStr"/>
-      <c r="G294" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="C295" t="inlineStr"/>
-      <c r="D295" t="inlineStr"/>
-      <c r="E295" t="inlineStr"/>
-      <c r="F295" t="inlineStr"/>
-      <c r="G295" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="C296" t="inlineStr"/>
-      <c r="D296" t="inlineStr"/>
-      <c r="E296" t="inlineStr"/>
-      <c r="F296" t="inlineStr"/>
-      <c r="G296" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="C297" t="inlineStr"/>
-      <c r="D297" t="inlineStr"/>
-      <c r="E297" t="inlineStr"/>
-      <c r="F297" t="inlineStr"/>
-      <c r="G297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="C298" t="inlineStr"/>
-      <c r="D298" t="inlineStr"/>
-      <c r="E298" t="inlineStr"/>
-      <c r="F298" t="inlineStr"/>
-      <c r="G298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="C299" t="inlineStr"/>
-      <c r="D299" t="inlineStr"/>
-      <c r="E299" t="inlineStr"/>
-      <c r="F299" t="inlineStr"/>
-      <c r="G299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
-        </is>
-      </c>
-      <c r="C300" t="inlineStr"/>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>-0.255M</t>
-        </is>
-      </c>
-      <c r="E300" t="inlineStr"/>
-      <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C301" t="inlineStr"/>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>4.240%</t>
-        </is>
-      </c>
-      <c r="E301" t="inlineStr"/>
-      <c r="F301" t="inlineStr"/>
-      <c r="G301" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C302" t="inlineStr"/>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t>4.235%</t>
-        </is>
-      </c>
-      <c r="E302" t="inlineStr"/>
-      <c r="F302" t="inlineStr"/>
-      <c r="G302" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJAN/23</t>
-        </is>
-      </c>
-      <c r="C303" t="inlineStr"/>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>6.27%</t>
-        </is>
-      </c>
-      <c r="E303" t="inlineStr"/>
-      <c r="F303" t="inlineStr"/>
-      <c r="G303" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJAN/23</t>
-        </is>
-      </c>
-      <c r="C304" t="inlineStr"/>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>7.04%</t>
-        </is>
-      </c>
-      <c r="E304" t="inlineStr"/>
-      <c r="F304" t="inlineStr"/>
-      <c r="G304" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>10-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C305" t="inlineStr"/>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>2.071%</t>
-        </is>
-      </c>
-      <c r="E305" t="inlineStr"/>
-      <c r="F305" t="inlineStr"/>
-      <c r="G305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B306" t="inlineStr"/>
-      <c r="C306" t="inlineStr"/>
-      <c r="D306" t="inlineStr"/>
-      <c r="E306" t="inlineStr"/>
-      <c r="F306" t="inlineStr"/>
-      <c r="G306" t="inlineStr"/>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJAN/22</t>
-        </is>
-      </c>
-      <c r="C307" t="inlineStr"/>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t>$6.83T</t>
-        </is>
-      </c>
-      <c r="E307" t="inlineStr"/>
-      <c r="F307" t="inlineStr"/>
-      <c r="G307" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
-        </is>
-      </c>
-      <c r="C308" t="inlineStr"/>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
-      <c r="E308" t="inlineStr"/>
-      <c r="F308" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
-      <c r="G308" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
-        </is>
-      </c>
-      <c r="C309" t="inlineStr"/>
-      <c r="D309" t="inlineStr">
-        <is>
-          <t>49.4</t>
-        </is>
-      </c>
-      <c r="E309" t="inlineStr"/>
-      <c r="F309" t="inlineStr">
-        <is>
-          <t>49.6</t>
-        </is>
-      </c>
-      <c r="G309" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr"/>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>56.8</t>
-        </is>
-      </c>
-      <c r="E310" t="inlineStr"/>
-      <c r="F310" t="inlineStr">
-        <is>
-          <t>56.6</t>
-        </is>
-      </c>
-      <c r="G310" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>Existing Home SalesDEC</t>
-        </is>
-      </c>
-      <c r="C311" t="inlineStr"/>
-      <c r="D311" t="inlineStr">
-        <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="E311" t="inlineStr"/>
-      <c r="F311" t="inlineStr">
-        <is>
-          <t>4.0M</t>
-        </is>
-      </c>
-      <c r="G311" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="C312" t="inlineStr"/>
-      <c r="D312" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
-      <c r="E312" t="inlineStr"/>
-      <c r="F312" t="inlineStr">
-        <is>
-          <t>-3.0%</t>
-        </is>
-      </c>
-      <c r="G312" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
-        </is>
-      </c>
-      <c r="C313" t="inlineStr"/>
-      <c r="D313" t="inlineStr">
-        <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="E313" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
-      <c r="F313" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
-      <c r="G313" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
-        </is>
-      </c>
-      <c r="C314" t="inlineStr"/>
-      <c r="D314" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E314" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F314" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
-        </is>
-      </c>
-      <c r="C315" t="inlineStr"/>
-      <c r="D315" t="inlineStr">
-        <is>
-          <t>73.3</t>
-        </is>
-      </c>
-      <c r="E315" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
-      <c r="F315" t="inlineStr">
-        <is>
-          <t>70.2</t>
-        </is>
-      </c>
-      <c r="G315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions FinalJAN</t>
-        </is>
-      </c>
-      <c r="C316" t="inlineStr"/>
-      <c r="D316" t="inlineStr">
-        <is>
-          <t>75.1</t>
-        </is>
-      </c>
-      <c r="E316" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="F316" t="inlineStr">
-        <is>
-          <t>77.9</t>
-        </is>
-      </c>
-      <c r="G316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
-        </is>
-      </c>
-      <c r="C317" t="inlineStr"/>
-      <c r="D317" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E317" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F317" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>Kansas Fed Composite IndexJAN</t>
-        </is>
-      </c>
-      <c r="C318" t="inlineStr"/>
-      <c r="D318" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="E318" t="inlineStr"/>
-      <c r="F318" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="G318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="C319" t="inlineStr"/>
-      <c r="D319" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="E319" t="inlineStr"/>
-      <c r="F319" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="G319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
-        </is>
-      </c>
-      <c r="C320" t="inlineStr"/>
-      <c r="D320" t="inlineStr"/>
-      <c r="E320" t="inlineStr"/>
-      <c r="F320" t="inlineStr"/>
-      <c r="G320" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
-        </is>
-      </c>
-      <c r="C321" t="inlineStr"/>
-      <c r="D321" t="inlineStr"/>
-      <c r="E321" t="inlineStr"/>
-      <c r="F321" t="inlineStr"/>
-      <c r="G321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B322" t="inlineStr"/>
-      <c r="C322" t="inlineStr"/>
-      <c r="D322" t="inlineStr"/>
-      <c r="E322" t="inlineStr"/>
-      <c r="F322" t="inlineStr"/>
-      <c r="G322" t="inlineStr"/>
+      <c r="F262" t="inlineStr"/>
+      <c r="G262" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G330"/>
+  <dimension ref="A1:G331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8124,7 +8124,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Monday January 20 2025</t>
+          <t>Sunday January 19 2025</t>
         </is>
       </c>
       <c r="B279" t="inlineStr"/>
@@ -8137,7 +8137,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Tuesday January 21 2025</t>
+          <t>Monday January 20 2025</t>
         </is>
       </c>
       <c r="B280" t="inlineStr"/>
@@ -8150,43 +8150,31 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/18</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr"/>
       <c r="C281" t="inlineStr"/>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
+      <c r="D281" t="inlineStr"/>
       <c r="E281" t="inlineStr"/>
       <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="C282" t="inlineStr"/>
       <c r="D282" t="inlineStr">
         <is>
-          <t>4.225%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="E282" t="inlineStr"/>
@@ -8205,13 +8193,13 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="C283" t="inlineStr"/>
       <c r="D283" t="inlineStr">
         <is>
-          <t>4.070%</t>
+          <t>4.225%</t>
         </is>
       </c>
       <c r="E283" t="inlineStr"/>
@@ -8230,13 +8218,13 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="C284" t="inlineStr"/>
       <c r="D284" t="inlineStr">
         <is>
-          <t>4.180%</t>
+          <t>4.070%</t>
         </is>
       </c>
       <c r="E284" t="inlineStr"/>
@@ -8250,40 +8238,40 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr"/>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
       <c r="C285" t="inlineStr"/>
-      <c r="D285" t="inlineStr"/>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>4.180%</t>
+        </is>
+      </c>
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="inlineStr"/>
-      <c r="G285" t="inlineStr"/>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJAN/17</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr"/>
       <c r="C286" t="inlineStr"/>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>7.09%</t>
-        </is>
-      </c>
+      <c r="D286" t="inlineStr"/>
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="inlineStr"/>
-      <c r="G286" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -8293,20 +8281,20 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/17</t>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
         </is>
       </c>
       <c r="C287" t="inlineStr"/>
       <c r="D287" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>7.09%</t>
         </is>
       </c>
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="inlineStr"/>
       <c r="G287" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -8318,13 +8306,13 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/17</t>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
         </is>
       </c>
       <c r="C288" t="inlineStr"/>
       <c r="D288" t="inlineStr">
         <is>
-          <t>224.4</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="E288" t="inlineStr"/>
@@ -8343,13 +8331,13 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/17</t>
+          <t>MBA Mortgage Market IndexJAN/17</t>
         </is>
       </c>
       <c r="C289" t="inlineStr"/>
       <c r="D289" t="inlineStr">
         <is>
-          <t>575.6</t>
+          <t>224.4</t>
         </is>
       </c>
       <c r="E289" t="inlineStr"/>
@@ -8368,13 +8356,13 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/17</t>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
         </is>
       </c>
       <c r="C290" t="inlineStr"/>
       <c r="D290" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>575.6</t>
         </is>
       </c>
       <c r="E290" t="inlineStr"/>
@@ -8388,18 +8376,18 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMDEC</t>
+          <t>MBA Purchase IndexJAN/17</t>
         </is>
       </c>
       <c r="C291" t="inlineStr"/>
       <c r="D291" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>162</t>
         </is>
       </c>
       <c r="E291" t="inlineStr"/>
@@ -8413,18 +8401,18 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>CB Leading Index MoMDEC</t>
         </is>
       </c>
       <c r="C292" t="inlineStr"/>
       <c r="D292" t="inlineStr">
         <is>
-          <t>4.210%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E292" t="inlineStr"/>
@@ -8438,18 +8426,18 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>20-Year Bond Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C293" t="inlineStr"/>
       <c r="D293" t="inlineStr">
         <is>
-          <t>4.686%</t>
+          <t>4.210%</t>
         </is>
       </c>
       <c r="E293" t="inlineStr"/>
@@ -8463,56 +8451,56 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Thursday January 23 2025</t>
-        </is>
-      </c>
-      <c r="B294" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>20-Year Bond Auction</t>
+        </is>
+      </c>
       <c r="C294" t="inlineStr"/>
-      <c r="D294" t="inlineStr"/>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>4.686%</t>
+        </is>
+      </c>
       <c r="E294" t="inlineStr"/>
       <c r="F294" t="inlineStr"/>
-      <c r="G294" t="inlineStr"/>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
-        </is>
-      </c>
+          <t>Thursday January 23 2025</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr"/>
       <c r="C295" t="inlineStr"/>
-      <c r="D295" t="inlineStr">
-        <is>
-          <t>-2.6M</t>
-        </is>
-      </c>
+      <c r="D295" t="inlineStr"/>
       <c r="E295" t="inlineStr"/>
       <c r="F295" t="inlineStr"/>
-      <c r="G295" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/18</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="C296" t="inlineStr"/>
       <c r="D296" t="inlineStr">
         <is>
-          <t>217K</t>
+          <t>-2.6M</t>
         </is>
       </c>
       <c r="E296" t="inlineStr"/>
@@ -8531,20 +8519,20 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJAN/11</t>
+          <t>Initial Jobless ClaimsJAN/18</t>
         </is>
       </c>
       <c r="C297" t="inlineStr"/>
       <c r="D297" t="inlineStr">
         <is>
-          <t>1859K</t>
+          <t>217K</t>
         </is>
       </c>
       <c r="E297" t="inlineStr"/>
       <c r="F297" t="inlineStr"/>
       <c r="G297" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -8556,11 +8544,15 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/18</t>
+          <t>Continuing Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="C298" t="inlineStr"/>
-      <c r="D298" t="inlineStr"/>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>1859K</t>
+        </is>
+      </c>
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="inlineStr"/>
       <c r="G298" t="inlineStr">
@@ -8572,20 +8564,16 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
+          <t>Jobless Claims 4-week AverageJAN/18</t>
         </is>
       </c>
       <c r="C299" t="inlineStr"/>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t>-258Bcf</t>
-        </is>
-      </c>
+      <c r="D299" t="inlineStr"/>
       <c r="E299" t="inlineStr"/>
       <c r="F299" t="inlineStr"/>
       <c r="G299" t="inlineStr">
@@ -8597,25 +8585,25 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="C300" t="inlineStr"/>
       <c r="D300" t="inlineStr">
         <is>
-          <t>-1.961M</t>
+          <t>-258Bcf</t>
         </is>
       </c>
       <c r="E300" t="inlineStr"/>
       <c r="F300" t="inlineStr"/>
       <c r="G300" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -8627,13 +8615,13 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/17</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="C301" t="inlineStr"/>
       <c r="D301" t="inlineStr">
         <is>
-          <t>5.852M</t>
+          <t>-1.961M</t>
         </is>
       </c>
       <c r="E301" t="inlineStr"/>
@@ -8652,20 +8640,20 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/17</t>
+          <t>EIA Gasoline Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="C302" t="inlineStr"/>
       <c r="D302" t="inlineStr">
         <is>
-          <t>-1.304M</t>
+          <t>5.852M</t>
         </is>
       </c>
       <c r="E302" t="inlineStr"/>
       <c r="F302" t="inlineStr"/>
       <c r="G302" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -8677,13 +8665,13 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
+          <t>EIA Crude Oil Imports ChangeJAN/17</t>
         </is>
       </c>
       <c r="C303" t="inlineStr"/>
       <c r="D303" t="inlineStr">
         <is>
-          <t>0.765M</t>
+          <t>-1.304M</t>
         </is>
       </c>
       <c r="E303" t="inlineStr"/>
@@ -8702,13 +8690,13 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="C304" t="inlineStr"/>
       <c r="D304" t="inlineStr">
         <is>
-          <t>-0.021M</t>
+          <t>0.765M</t>
         </is>
       </c>
       <c r="E304" t="inlineStr"/>
@@ -8727,13 +8715,13 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/17</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="C305" t="inlineStr"/>
       <c r="D305" t="inlineStr">
         <is>
-          <t>3.077M</t>
+          <t>-0.021M</t>
         </is>
       </c>
       <c r="E305" t="inlineStr"/>
@@ -8752,13 +8740,13 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/17</t>
+          <t>EIA Distillate Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="C306" t="inlineStr"/>
       <c r="D306" t="inlineStr">
         <is>
-          <t>0.397M</t>
+          <t>3.077M</t>
         </is>
       </c>
       <c r="E306" t="inlineStr"/>
@@ -8777,13 +8765,13 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
+          <t>EIA Gasoline Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="C307" t="inlineStr"/>
       <c r="D307" t="inlineStr">
         <is>
-          <t>0.646M</t>
+          <t>0.397M</t>
         </is>
       </c>
       <c r="E307" t="inlineStr"/>
@@ -8802,13 +8790,13 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="C308" t="inlineStr"/>
       <c r="D308" t="inlineStr">
         <is>
-          <t>-0.255M</t>
+          <t>0.646M</t>
         </is>
       </c>
       <c r="E308" t="inlineStr"/>
@@ -8822,18 +8810,18 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
         </is>
       </c>
       <c r="C309" t="inlineStr"/>
       <c r="D309" t="inlineStr">
         <is>
-          <t>4.240%</t>
+          <t>-0.255M</t>
         </is>
       </c>
       <c r="E309" t="inlineStr"/>
@@ -8852,13 +8840,13 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C310" t="inlineStr"/>
       <c r="D310" t="inlineStr">
         <is>
-          <t>4.235%</t>
+          <t>4.240%</t>
         </is>
       </c>
       <c r="E310" t="inlineStr"/>
@@ -8872,18 +8860,18 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/23</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C311" t="inlineStr"/>
       <c r="D311" t="inlineStr">
         <is>
-          <t>6.27%</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="E311" t="inlineStr"/>
@@ -8902,13 +8890,13 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJAN/23</t>
+          <t>15-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="C312" t="inlineStr"/>
       <c r="D312" t="inlineStr">
         <is>
-          <t>7.04%</t>
+          <t>6.27%</t>
         </is>
       </c>
       <c r="E312" t="inlineStr"/>
@@ -8922,18 +8910,18 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>10-Year TIPS Auction</t>
+          <t>30-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="C313" t="inlineStr"/>
       <c r="D313" t="inlineStr">
         <is>
-          <t>2.071%</t>
+          <t>7.04%</t>
         </is>
       </c>
       <c r="E313" t="inlineStr"/>
@@ -8947,67 +8935,63 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B314" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>10-Year TIPS Auction</t>
+        </is>
+      </c>
       <c r="C314" t="inlineStr"/>
-      <c r="D314" t="inlineStr"/>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>2.071%</t>
+        </is>
+      </c>
       <c r="E314" t="inlineStr"/>
       <c r="F314" t="inlineStr"/>
-      <c r="G314" t="inlineStr"/>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJAN/22</t>
-        </is>
-      </c>
+          <t>Friday January 24 2025</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr"/>
       <c r="C315" t="inlineStr"/>
-      <c r="D315" t="inlineStr">
-        <is>
-          <t>$6.83T</t>
-        </is>
-      </c>
+      <c r="D315" t="inlineStr"/>
       <c r="E315" t="inlineStr"/>
       <c r="F315" t="inlineStr"/>
-      <c r="G315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Fed Balance SheetJAN/22</t>
         </is>
       </c>
       <c r="C316" t="inlineStr"/>
       <c r="D316" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>$6.83T</t>
         </is>
       </c>
       <c r="E316" t="inlineStr"/>
-      <c r="F316" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="F316" t="inlineStr"/>
       <c r="G316" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -9019,19 +9003,19 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="C317" t="inlineStr"/>
       <c r="D317" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
@@ -9048,19 +9032,19 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="C318" t="inlineStr"/>
       <c r="D318" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr">
         <is>
-          <t>56.6</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
@@ -9072,29 +9056,29 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="C319" t="inlineStr"/>
       <c r="D319" t="inlineStr">
         <is>
-          <t>4.15M</t>
+          <t>56.8</t>
         </is>
       </c>
       <c r="E319" t="inlineStr"/>
       <c r="F319" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -9106,24 +9090,28 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="C320" t="inlineStr"/>
       <c r="D320" t="inlineStr">
         <is>
-          <t>4.8%</t>
-        </is>
-      </c>
-      <c r="E320" t="inlineStr"/>
+          <t>4.15M</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>4.16M</t>
+        </is>
+      </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>-3.0%</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9135,23 +9123,19 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="C321" t="inlineStr"/>
       <c r="D321" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="E321" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>4.8%</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr"/>
       <c r="F321" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>-3.0%</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
@@ -9168,28 +9152,28 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="C322" t="inlineStr"/>
       <c r="D322" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -9201,23 +9185,23 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="C323" t="inlineStr"/>
       <c r="D323" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
@@ -9234,23 +9218,23 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="C324" t="inlineStr"/>
       <c r="D324" t="inlineStr">
         <is>
-          <t>75.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>77.9</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>77.9</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
@@ -9267,23 +9251,23 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="C325" t="inlineStr"/>
       <c r="D325" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -9295,24 +9279,28 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="C326" t="inlineStr"/>
       <c r="D326" t="inlineStr">
         <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="E326" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
@@ -9329,19 +9317,19 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="C327" t="inlineStr"/>
       <c r="D327" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="E327" t="inlineStr"/>
       <c r="F327" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
@@ -9353,18 +9341,26 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="C328" t="inlineStr"/>
-      <c r="D328" t="inlineStr"/>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
       <c r="E328" t="inlineStr"/>
-      <c r="F328" t="inlineStr"/>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
       <c r="G328" t="inlineStr">
         <is>
           <t>3</t>
@@ -9379,7 +9375,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="C329" t="inlineStr"/>
@@ -9395,15 +9391,36 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B330" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
+        </is>
+      </c>
       <c r="C330" t="inlineStr"/>
       <c r="D330" t="inlineStr"/>
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr"/>
-      <c r="G330" t="inlineStr"/>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr"/>
+      <c r="C331" t="inlineStr"/>
+      <c r="D331" t="inlineStr"/>
+      <c r="E331" t="inlineStr"/>
+      <c r="F331" t="inlineStr"/>
+      <c r="G331" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G331"/>
+  <dimension ref="A1:G332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8148,58 +8148,50 @@
       <c r="G280" t="inlineStr"/>
     </row>
     <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>Tuesday January 21 2025</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr"/>
+      <c r="A281" t="inlineStr"/>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Inauguration Day</t>
+        </is>
+      </c>
       <c r="C281" t="inlineStr"/>
       <c r="D281" t="inlineStr"/>
       <c r="E281" t="inlineStr"/>
       <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr"/>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>Redbook YoYJAN/18</t>
-        </is>
-      </c>
+          <t>Tuesday January 21 2025</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr"/>
       <c r="C282" t="inlineStr"/>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
+      <c r="D282" t="inlineStr"/>
       <c r="E282" t="inlineStr"/>
       <c r="F282" t="inlineStr"/>
-      <c r="G282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="C283" t="inlineStr"/>
       <c r="D283" t="inlineStr">
         <is>
-          <t>4.225%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="E283" t="inlineStr"/>
@@ -8218,13 +8210,13 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="C284" t="inlineStr"/>
       <c r="D284" t="inlineStr">
         <is>
-          <t>4.070%</t>
+          <t>4.225%</t>
         </is>
       </c>
       <c r="E284" t="inlineStr"/>
@@ -8243,13 +8235,13 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="C285" t="inlineStr"/>
       <c r="D285" t="inlineStr">
         <is>
-          <t>4.180%</t>
+          <t>4.070%</t>
         </is>
       </c>
       <c r="E285" t="inlineStr"/>
@@ -8263,40 +8255,40 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Wednesday January 22 2025</t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr"/>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
       <c r="C286" t="inlineStr"/>
-      <c r="D286" t="inlineStr"/>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>4.180%</t>
+        </is>
+      </c>
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="inlineStr"/>
-      <c r="G286" t="inlineStr"/>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateJAN/17</t>
-        </is>
-      </c>
+          <t>Wednesday January 22 2025</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr"/>
       <c r="C287" t="inlineStr"/>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>7.09%</t>
-        </is>
-      </c>
+      <c r="D287" t="inlineStr"/>
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="inlineStr"/>
-      <c r="G287" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -8306,20 +8298,20 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/17</t>
+          <t>MBA 30-Year Mortgage RateJAN/17</t>
         </is>
       </c>
       <c r="C288" t="inlineStr"/>
       <c r="D288" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>7.09%</t>
         </is>
       </c>
       <c r="E288" t="inlineStr"/>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -8331,13 +8323,13 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/17</t>
+          <t>MBA Mortgage ApplicationsJAN/17</t>
         </is>
       </c>
       <c r="C289" t="inlineStr"/>
       <c r="D289" t="inlineStr">
         <is>
-          <t>224.4</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="E289" t="inlineStr"/>
@@ -8356,13 +8348,13 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/17</t>
+          <t>MBA Mortgage Market IndexJAN/17</t>
         </is>
       </c>
       <c r="C290" t="inlineStr"/>
       <c r="D290" t="inlineStr">
         <is>
-          <t>575.6</t>
+          <t>224.4</t>
         </is>
       </c>
       <c r="E290" t="inlineStr"/>
@@ -8381,13 +8373,13 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/17</t>
+          <t>MBA Mortgage Refinance IndexJAN/17</t>
         </is>
       </c>
       <c r="C291" t="inlineStr"/>
       <c r="D291" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>575.6</t>
         </is>
       </c>
       <c r="E291" t="inlineStr"/>
@@ -8401,18 +8393,18 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMDEC</t>
+          <t>MBA Purchase IndexJAN/17</t>
         </is>
       </c>
       <c r="C292" t="inlineStr"/>
       <c r="D292" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>162</t>
         </is>
       </c>
       <c r="E292" t="inlineStr"/>
@@ -8426,21 +8418,25 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>CB Leading Index MoMDEC</t>
         </is>
       </c>
       <c r="C293" t="inlineStr"/>
       <c r="D293" t="inlineStr">
         <is>
-          <t>4.210%</t>
-        </is>
-      </c>
-      <c r="E293" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="F293" t="inlineStr"/>
       <c r="G293" t="inlineStr">
         <is>
@@ -8451,18 +8447,18 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>20-Year Bond Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C294" t="inlineStr"/>
       <c r="D294" t="inlineStr">
         <is>
-          <t>4.686%</t>
+          <t>4.210%</t>
         </is>
       </c>
       <c r="E294" t="inlineStr"/>
@@ -8476,56 +8472,56 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Thursday January 23 2025</t>
-        </is>
-      </c>
-      <c r="B295" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>20-Year Bond Auction</t>
+        </is>
+      </c>
       <c r="C295" t="inlineStr"/>
-      <c r="D295" t="inlineStr"/>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>4.686%</t>
+        </is>
+      </c>
       <c r="E295" t="inlineStr"/>
       <c r="F295" t="inlineStr"/>
-      <c r="G295" t="inlineStr"/>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
-        </is>
-      </c>
+          <t>Thursday January 23 2025</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr"/>
       <c r="C296" t="inlineStr"/>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>-2.6M</t>
-        </is>
-      </c>
+      <c r="D296" t="inlineStr"/>
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="inlineStr"/>
-      <c r="G296" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/18</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="C297" t="inlineStr"/>
       <c r="D297" t="inlineStr">
         <is>
-          <t>217K</t>
+          <t>-2.6M</t>
         </is>
       </c>
       <c r="E297" t="inlineStr"/>
@@ -8544,20 +8540,20 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJAN/11</t>
+          <t>Initial Jobless ClaimsJAN/18</t>
         </is>
       </c>
       <c r="C298" t="inlineStr"/>
       <c r="D298" t="inlineStr">
         <is>
-          <t>1859K</t>
+          <t>217K</t>
         </is>
       </c>
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="inlineStr"/>
       <c r="G298" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -8569,11 +8565,15 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/18</t>
+          <t>Continuing Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="C299" t="inlineStr"/>
-      <c r="D299" t="inlineStr"/>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>1859K</t>
+        </is>
+      </c>
       <c r="E299" t="inlineStr"/>
       <c r="F299" t="inlineStr"/>
       <c r="G299" t="inlineStr">
@@ -8585,20 +8585,16 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
+          <t>Jobless Claims 4-week AverageJAN/18</t>
         </is>
       </c>
       <c r="C300" t="inlineStr"/>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>-258Bcf</t>
-        </is>
-      </c>
+      <c r="D300" t="inlineStr"/>
       <c r="E300" t="inlineStr"/>
       <c r="F300" t="inlineStr"/>
       <c r="G300" t="inlineStr">
@@ -8610,25 +8606,25 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="C301" t="inlineStr"/>
       <c r="D301" t="inlineStr">
         <is>
-          <t>-1.961M</t>
+          <t>-258Bcf</t>
         </is>
       </c>
       <c r="E301" t="inlineStr"/>
       <c r="F301" t="inlineStr"/>
       <c r="G301" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -8640,13 +8636,13 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/17</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="C302" t="inlineStr"/>
       <c r="D302" t="inlineStr">
         <is>
-          <t>5.852M</t>
+          <t>-1.961M</t>
         </is>
       </c>
       <c r="E302" t="inlineStr"/>
@@ -8665,20 +8661,20 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/17</t>
+          <t>EIA Gasoline Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="C303" t="inlineStr"/>
       <c r="D303" t="inlineStr">
         <is>
-          <t>-1.304M</t>
+          <t>5.852M</t>
         </is>
       </c>
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="inlineStr"/>
       <c r="G303" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -8690,13 +8686,13 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
+          <t>EIA Crude Oil Imports ChangeJAN/17</t>
         </is>
       </c>
       <c r="C304" t="inlineStr"/>
       <c r="D304" t="inlineStr">
         <is>
-          <t>0.765M</t>
+          <t>-1.304M</t>
         </is>
       </c>
       <c r="E304" t="inlineStr"/>
@@ -8715,13 +8711,13 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="C305" t="inlineStr"/>
       <c r="D305" t="inlineStr">
         <is>
-          <t>-0.021M</t>
+          <t>0.765M</t>
         </is>
       </c>
       <c r="E305" t="inlineStr"/>
@@ -8740,13 +8736,13 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/17</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="C306" t="inlineStr"/>
       <c r="D306" t="inlineStr">
         <is>
-          <t>3.077M</t>
+          <t>-0.021M</t>
         </is>
       </c>
       <c r="E306" t="inlineStr"/>
@@ -8765,13 +8761,13 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/17</t>
+          <t>EIA Distillate Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="C307" t="inlineStr"/>
       <c r="D307" t="inlineStr">
         <is>
-          <t>0.397M</t>
+          <t>3.077M</t>
         </is>
       </c>
       <c r="E307" t="inlineStr"/>
@@ -8790,13 +8786,13 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
+          <t>EIA Gasoline Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="C308" t="inlineStr"/>
       <c r="D308" t="inlineStr">
         <is>
-          <t>0.646M</t>
+          <t>0.397M</t>
         </is>
       </c>
       <c r="E308" t="inlineStr"/>
@@ -8815,13 +8811,13 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="C309" t="inlineStr"/>
       <c r="D309" t="inlineStr">
         <is>
-          <t>-0.255M</t>
+          <t>0.646M</t>
         </is>
       </c>
       <c r="E309" t="inlineStr"/>
@@ -8835,18 +8831,18 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
         </is>
       </c>
       <c r="C310" t="inlineStr"/>
       <c r="D310" t="inlineStr">
         <is>
-          <t>4.240%</t>
+          <t>-0.255M</t>
         </is>
       </c>
       <c r="E310" t="inlineStr"/>
@@ -8865,13 +8861,13 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C311" t="inlineStr"/>
       <c r="D311" t="inlineStr">
         <is>
-          <t>4.235%</t>
+          <t>4.240%</t>
         </is>
       </c>
       <c r="E311" t="inlineStr"/>
@@ -8885,18 +8881,18 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/23</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C312" t="inlineStr"/>
       <c r="D312" t="inlineStr">
         <is>
-          <t>6.27%</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="E312" t="inlineStr"/>
@@ -8915,13 +8911,13 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJAN/23</t>
+          <t>15-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="C313" t="inlineStr"/>
       <c r="D313" t="inlineStr">
         <is>
-          <t>7.04%</t>
+          <t>6.27%</t>
         </is>
       </c>
       <c r="E313" t="inlineStr"/>
@@ -8935,18 +8931,18 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>10-Year TIPS Auction</t>
+          <t>30-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="C314" t="inlineStr"/>
       <c r="D314" t="inlineStr">
         <is>
-          <t>2.071%</t>
+          <t>7.04%</t>
         </is>
       </c>
       <c r="E314" t="inlineStr"/>
@@ -8960,67 +8956,63 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B315" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>10-Year TIPS Auction</t>
+        </is>
+      </c>
       <c r="C315" t="inlineStr"/>
-      <c r="D315" t="inlineStr"/>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2.071%</t>
+        </is>
+      </c>
       <c r="E315" t="inlineStr"/>
       <c r="F315" t="inlineStr"/>
-      <c r="G315" t="inlineStr"/>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJAN/22</t>
-        </is>
-      </c>
+          <t>Friday January 24 2025</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr"/>
       <c r="C316" t="inlineStr"/>
-      <c r="D316" t="inlineStr">
-        <is>
-          <t>$6.83T</t>
-        </is>
-      </c>
+      <c r="D316" t="inlineStr"/>
       <c r="E316" t="inlineStr"/>
       <c r="F316" t="inlineStr"/>
-      <c r="G316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Fed Balance SheetJAN/22</t>
         </is>
       </c>
       <c r="C317" t="inlineStr"/>
       <c r="D317" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>$6.83T</t>
         </is>
       </c>
       <c r="E317" t="inlineStr"/>
-      <c r="F317" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="F317" t="inlineStr"/>
       <c r="G317" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -9032,19 +9024,19 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="C318" t="inlineStr"/>
       <c r="D318" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="E318" t="inlineStr"/>
       <c r="F318" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
@@ -9061,19 +9053,19 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="C319" t="inlineStr"/>
       <c r="D319" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="E319" t="inlineStr"/>
       <c r="F319" t="inlineStr">
         <is>
-          <t>56.6</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
@@ -9085,33 +9077,29 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="C320" t="inlineStr"/>
       <c r="D320" t="inlineStr">
         <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="E320" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr"/>
       <c r="F320" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -9123,24 +9111,28 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="C321" t="inlineStr"/>
       <c r="D321" t="inlineStr">
         <is>
-          <t>4.8%</t>
-        </is>
-      </c>
-      <c r="E321" t="inlineStr"/>
+          <t>4.15M</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>4.16M</t>
+        </is>
+      </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>-3.0%</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9152,23 +9144,19 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="C322" t="inlineStr"/>
       <c r="D322" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="E322" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>4.8%</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr"/>
       <c r="F322" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>-3.0%</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
@@ -9185,28 +9173,28 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="C323" t="inlineStr"/>
       <c r="D323" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -9218,23 +9206,23 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="C324" t="inlineStr"/>
       <c r="D324" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
@@ -9251,23 +9239,23 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="C325" t="inlineStr"/>
       <c r="D325" t="inlineStr">
         <is>
-          <t>75.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>77.9</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>77.9</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -9284,23 +9272,23 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="C326" t="inlineStr"/>
       <c r="D326" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
@@ -9312,24 +9300,28 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="C327" t="inlineStr"/>
       <c r="D327" t="inlineStr">
         <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="E327" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
@@ -9346,19 +9338,19 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="C328" t="inlineStr"/>
       <c r="D328" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -9370,18 +9362,26 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="C329" t="inlineStr"/>
-      <c r="D329" t="inlineStr"/>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
       <c r="E329" t="inlineStr"/>
-      <c r="F329" t="inlineStr"/>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
       <c r="G329" t="inlineStr">
         <is>
           <t>3</t>
@@ -9396,7 +9396,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="C330" t="inlineStr"/>
@@ -9412,15 +9412,36 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B331" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
+        </is>
+      </c>
       <c r="C331" t="inlineStr"/>
       <c r="D331" t="inlineStr"/>
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr"/>
-      <c r="G331" t="inlineStr"/>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr"/>
+      <c r="C332" t="inlineStr"/>
+      <c r="D332" t="inlineStr"/>
+      <c r="E332" t="inlineStr"/>
+      <c r="F332" t="inlineStr"/>
+      <c r="G332" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G332"/>
+  <dimension ref="A1:G335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8180,18 +8180,18 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/18</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="C283" t="inlineStr"/>
       <c r="D283" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>4.225%</t>
         </is>
       </c>
       <c r="E283" t="inlineStr"/>
@@ -8210,13 +8210,13 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="C284" t="inlineStr"/>
       <c r="D284" t="inlineStr">
         <is>
-          <t>4.225%</t>
+          <t>4.180%</t>
         </is>
       </c>
       <c r="E284" t="inlineStr"/>
@@ -8230,18 +8230,18 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>42-Day Bill Auction</t>
         </is>
       </c>
       <c r="C285" t="inlineStr"/>
       <c r="D285" t="inlineStr">
         <is>
-          <t>4.070%</t>
+          <t>4.210%</t>
         </is>
       </c>
       <c r="E285" t="inlineStr"/>
@@ -8255,18 +8255,18 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>52-Week Bill Auction</t>
         </is>
       </c>
       <c r="C286" t="inlineStr"/>
       <c r="D286" t="inlineStr">
         <is>
-          <t>4.180%</t>
+          <t>4.070%</t>
         </is>
       </c>
       <c r="E286" t="inlineStr"/>
@@ -8418,25 +8418,21 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:25 PM</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>CB Leading Index MoMDEC</t>
+          <t>Redbook YoYJAN/18</t>
         </is>
       </c>
       <c r="C293" t="inlineStr"/>
       <c r="D293" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E293" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr"/>
       <c r="F293" t="inlineStr"/>
       <c r="G293" t="inlineStr">
         <is>
@@ -8447,21 +8443,25 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>CB Leading Index MoMDEC</t>
         </is>
       </c>
       <c r="C294" t="inlineStr"/>
       <c r="D294" t="inlineStr">
         <is>
-          <t>4.210%</t>
-        </is>
-      </c>
-      <c r="E294" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="F294" t="inlineStr"/>
       <c r="G294" t="inlineStr">
         <is>
@@ -8472,18 +8472,18 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>20-Year Bond Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C295" t="inlineStr"/>
       <c r="D295" t="inlineStr">
         <is>
-          <t>4.686%</t>
+          <t>4.210%</t>
         </is>
       </c>
       <c r="E295" t="inlineStr"/>
@@ -8497,56 +8497,56 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Thursday January 23 2025</t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>20-Year Bond Auction</t>
+        </is>
+      </c>
       <c r="C296" t="inlineStr"/>
-      <c r="D296" t="inlineStr"/>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>4.686%</t>
+        </is>
+      </c>
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="inlineStr"/>
-      <c r="G296" t="inlineStr"/>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeJAN/17</t>
-        </is>
-      </c>
+          <t>Thursday January 23 2025</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr"/>
       <c r="C297" t="inlineStr"/>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>-2.6M</t>
-        </is>
-      </c>
+      <c r="D297" t="inlineStr"/>
       <c r="E297" t="inlineStr"/>
       <c r="F297" t="inlineStr"/>
-      <c r="G297" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsJAN/18</t>
+          <t>API Crude Oil Stock ChangeJAN/17</t>
         </is>
       </c>
       <c r="C298" t="inlineStr"/>
       <c r="D298" t="inlineStr">
         <is>
-          <t>217K</t>
+          <t>-2.6M</t>
         </is>
       </c>
       <c r="E298" t="inlineStr"/>
@@ -8565,20 +8565,24 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsJAN/11</t>
+          <t>Initial Jobless ClaimsJAN/18</t>
         </is>
       </c>
       <c r="C299" t="inlineStr"/>
       <c r="D299" t="inlineStr">
         <is>
-          <t>1859K</t>
+          <t>217K</t>
         </is>
       </c>
       <c r="E299" t="inlineStr"/>
-      <c r="F299" t="inlineStr"/>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>219K</t>
+        </is>
+      </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -8590,13 +8594,21 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageJAN/18</t>
+          <t>Continuing Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="C300" t="inlineStr"/>
-      <c r="D300" t="inlineStr"/>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>1859K</t>
+        </is>
+      </c>
       <c r="E300" t="inlineStr"/>
-      <c r="F300" t="inlineStr"/>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>1861K</t>
+        </is>
+      </c>
       <c r="G300" t="inlineStr">
         <is>
           <t>3</t>
@@ -8606,22 +8618,26 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
+          <t>Jobless Claims 4-week AverageJAN/18</t>
         </is>
       </c>
       <c r="C301" t="inlineStr"/>
       <c r="D301" t="inlineStr">
         <is>
-          <t>-258Bcf</t>
+          <t>212.75K</t>
         </is>
       </c>
       <c r="E301" t="inlineStr"/>
-      <c r="F301" t="inlineStr"/>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>213.0K</t>
+        </is>
+      </c>
       <c r="G301" t="inlineStr">
         <is>
           <t>3</t>
@@ -8631,25 +8647,25 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="C302" t="inlineStr"/>
       <c r="D302" t="inlineStr">
         <is>
-          <t>-1.961M</t>
+          <t>-258Bcf</t>
         </is>
       </c>
       <c r="E302" t="inlineStr"/>
       <c r="F302" t="inlineStr"/>
       <c r="G302" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -8661,13 +8677,13 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeJAN/17</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="C303" t="inlineStr"/>
       <c r="D303" t="inlineStr">
         <is>
-          <t>5.852M</t>
+          <t>-1.961M</t>
         </is>
       </c>
       <c r="E303" t="inlineStr"/>
@@ -8686,20 +8702,20 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeJAN/17</t>
+          <t>EIA Gasoline Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="C304" t="inlineStr"/>
       <c r="D304" t="inlineStr">
         <is>
-          <t>-1.304M</t>
+          <t>5.852M</t>
         </is>
       </c>
       <c r="E304" t="inlineStr"/>
       <c r="F304" t="inlineStr"/>
       <c r="G304" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -8711,13 +8727,13 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
+          <t>EIA Crude Oil Imports ChangeJAN/17</t>
         </is>
       </c>
       <c r="C305" t="inlineStr"/>
       <c r="D305" t="inlineStr">
         <is>
-          <t>0.765M</t>
+          <t>-1.304M</t>
         </is>
       </c>
       <c r="E305" t="inlineStr"/>
@@ -8736,13 +8752,13 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="C306" t="inlineStr"/>
       <c r="D306" t="inlineStr">
         <is>
-          <t>-0.021M</t>
+          <t>0.765M</t>
         </is>
       </c>
       <c r="E306" t="inlineStr"/>
@@ -8761,13 +8777,13 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeJAN/17</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="C307" t="inlineStr"/>
       <c r="D307" t="inlineStr">
         <is>
-          <t>3.077M</t>
+          <t>-0.021M</t>
         </is>
       </c>
       <c r="E307" t="inlineStr"/>
@@ -8786,13 +8802,13 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeJAN/17</t>
+          <t>EIA Distillate Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="C308" t="inlineStr"/>
       <c r="D308" t="inlineStr">
         <is>
-          <t>0.397M</t>
+          <t>3.077M</t>
         </is>
       </c>
       <c r="E308" t="inlineStr"/>
@@ -8811,13 +8827,13 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
+          <t>EIA Gasoline Production ChangeJAN/17</t>
         </is>
       </c>
       <c r="C309" t="inlineStr"/>
       <c r="D309" t="inlineStr">
         <is>
-          <t>0.646M</t>
+          <t>0.397M</t>
         </is>
       </c>
       <c r="E309" t="inlineStr"/>
@@ -8836,13 +8852,13 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/17</t>
         </is>
       </c>
       <c r="C310" t="inlineStr"/>
       <c r="D310" t="inlineStr">
         <is>
-          <t>-0.255M</t>
+          <t>0.646M</t>
         </is>
       </c>
       <c r="E310" t="inlineStr"/>
@@ -8856,18 +8872,18 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/17</t>
         </is>
       </c>
       <c r="C311" t="inlineStr"/>
       <c r="D311" t="inlineStr">
         <is>
-          <t>4.240%</t>
+          <t>-0.255M</t>
         </is>
       </c>
       <c r="E311" t="inlineStr"/>
@@ -8886,13 +8902,13 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C312" t="inlineStr"/>
       <c r="D312" t="inlineStr">
         <is>
-          <t>4.235%</t>
+          <t>4.240%</t>
         </is>
       </c>
       <c r="E312" t="inlineStr"/>
@@ -8906,18 +8922,18 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateJAN/23</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C313" t="inlineStr"/>
       <c r="D313" t="inlineStr">
         <is>
-          <t>6.27%</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="E313" t="inlineStr"/>
@@ -8936,13 +8952,13 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateJAN/23</t>
+          <t>15-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="C314" t="inlineStr"/>
       <c r="D314" t="inlineStr">
         <is>
-          <t>7.04%</t>
+          <t>6.27%</t>
         </is>
       </c>
       <c r="E314" t="inlineStr"/>
@@ -8956,18 +8972,18 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>10-Year TIPS Auction</t>
+          <t>30-Year Mortgage RateJAN/23</t>
         </is>
       </c>
       <c r="C315" t="inlineStr"/>
       <c r="D315" t="inlineStr">
         <is>
-          <t>2.071%</t>
+          <t>7.04%</t>
         </is>
       </c>
       <c r="E315" t="inlineStr"/>
@@ -8981,67 +8997,63 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Friday January 24 2025</t>
-        </is>
-      </c>
-      <c r="B316" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>10-Year TIPS Auction</t>
+        </is>
+      </c>
       <c r="C316" t="inlineStr"/>
-      <c r="D316" t="inlineStr"/>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>2.071%</t>
+        </is>
+      </c>
       <c r="E316" t="inlineStr"/>
       <c r="F316" t="inlineStr"/>
-      <c r="G316" t="inlineStr"/>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJAN/22</t>
-        </is>
-      </c>
+          <t>Friday January 24 2025</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr"/>
       <c r="C317" t="inlineStr"/>
-      <c r="D317" t="inlineStr">
-        <is>
-          <t>$6.83T</t>
-        </is>
-      </c>
+      <c r="D317" t="inlineStr"/>
       <c r="E317" t="inlineStr"/>
       <c r="F317" t="inlineStr"/>
-      <c r="G317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashJAN</t>
+          <t>Fed Balance SheetJAN/22</t>
         </is>
       </c>
       <c r="C318" t="inlineStr"/>
       <c r="D318" t="inlineStr">
         <is>
-          <t>55.4</t>
+          <t>$6.83T</t>
         </is>
       </c>
       <c r="E318" t="inlineStr"/>
-      <c r="F318" t="inlineStr">
-        <is>
-          <t>55.3</t>
-        </is>
-      </c>
+      <c r="F318" t="inlineStr"/>
       <c r="G318" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -9053,19 +9065,19 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
+          <t>S&amp;P Global Composite PMI FlashJAN</t>
         </is>
       </c>
       <c r="C319" t="inlineStr"/>
       <c r="D319" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="E319" t="inlineStr"/>
       <c r="F319" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>55.3</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
@@ -9082,19 +9094,19 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashJAN</t>
+          <t>S&amp;P Global Manufacturing PMI FlashJAN</t>
         </is>
       </c>
       <c r="C320" t="inlineStr"/>
       <c r="D320" t="inlineStr">
         <is>
-          <t>56.8</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="E320" t="inlineStr"/>
       <c r="F320" t="inlineStr">
         <is>
-          <t>56.6</t>
+          <t>49.6</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
@@ -9106,33 +9118,29 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Existing Home SalesDEC</t>
+          <t>S&amp;P Global Services PMI FlashJAN</t>
         </is>
       </c>
       <c r="C321" t="inlineStr"/>
       <c r="D321" t="inlineStr">
         <is>
-          <t>4.15M</t>
-        </is>
-      </c>
-      <c r="E321" t="inlineStr">
-        <is>
-          <t>4.16M</t>
-        </is>
-      </c>
+          <t>56.8</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr"/>
       <c r="F321" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>56.6</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -9144,24 +9152,28 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMDEC</t>
+          <t>Existing Home SalesDEC</t>
         </is>
       </c>
       <c r="C322" t="inlineStr"/>
       <c r="D322" t="inlineStr">
         <is>
-          <t>4.8%</t>
-        </is>
-      </c>
-      <c r="E322" t="inlineStr"/>
+          <t>4.15M</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>4.16M</t>
+        </is>
+      </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>-3.0%</t>
+          <t>4.0M</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9173,23 +9185,19 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalJAN</t>
+          <t>Existing Home Sales MoMDEC</t>
         </is>
       </c>
       <c r="C323" t="inlineStr"/>
       <c r="D323" t="inlineStr">
         <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="E323" t="inlineStr">
-        <is>
-          <t>73.2</t>
-        </is>
-      </c>
+          <t>4.8%</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr">
         <is>
-          <t>73.2</t>
+          <t>-3.0%</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
@@ -9206,28 +9214,28 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
+          <t>Michigan Consumer Sentiment FinalJAN</t>
         </is>
       </c>
       <c r="C324" t="inlineStr"/>
       <c r="D324" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>74.0</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>73.2</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -9239,23 +9247,23 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalJAN</t>
+          <t>Michigan 5 Year Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="C325" t="inlineStr"/>
       <c r="D325" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -9272,23 +9280,23 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalJAN</t>
+          <t>Michigan Consumer Expectations FinalJAN</t>
         </is>
       </c>
       <c r="C326" t="inlineStr"/>
       <c r="D326" t="inlineStr">
         <is>
-          <t>75.1</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>77.9</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>77.9</t>
+          <t>70.2</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
@@ -9305,23 +9313,23 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalJAN</t>
+          <t>Michigan Current Conditions FinalJAN</t>
         </is>
       </c>
       <c r="C327" t="inlineStr"/>
       <c r="D327" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>77.9</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
@@ -9333,24 +9341,28 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexJAN</t>
+          <t>Michigan Inflation Expectations FinalJAN</t>
         </is>
       </c>
       <c r="C328" t="inlineStr"/>
       <c r="D328" t="inlineStr">
         <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="E328" t="inlineStr"/>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>3.3%</t>
+        </is>
+      </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -9367,19 +9379,19 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexJAN</t>
+          <t>Kansas Fed Composite IndexJAN</t>
         </is>
       </c>
       <c r="C329" t="inlineStr"/>
       <c r="D329" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -9391,18 +9403,26 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/24</t>
+          <t>Kansas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="C330" t="inlineStr"/>
-      <c r="D330" t="inlineStr"/>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
       <c r="E330" t="inlineStr"/>
-      <c r="F330" t="inlineStr"/>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
       <c r="G330" t="inlineStr">
         <is>
           <t>3</t>
@@ -9417,7 +9437,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/24</t>
+          <t>Baker Hughes Oil Rig CountJAN/24</t>
         </is>
       </c>
       <c r="C331" t="inlineStr"/>
@@ -9433,15 +9453,82 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Monday January 27 2025</t>
-        </is>
-      </c>
-      <c r="B332" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountJAN/24</t>
+        </is>
+      </c>
       <c r="C332" t="inlineStr"/>
       <c r="D332" t="inlineStr"/>
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr"/>
-      <c r="G332" t="inlineStr"/>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Monday January 27 2025</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr"/>
+      <c r="C333" t="inlineStr"/>
+      <c r="D333" t="inlineStr"/>
+      <c r="E333" t="inlineStr"/>
+      <c r="F333" t="inlineStr"/>
+      <c r="G333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr"/>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Building Permits FinalDEC</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr"/>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>1.493M</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr"/>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr"/>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Building Permits MoM FinalDEC</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr"/>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>5.2%</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr"/>
+      <c r="F335" t="inlineStr"/>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G335"/>
+  <dimension ref="A1:G336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7709,7 +7709,11 @@
           <t>Building Permits PrelDEC</t>
         </is>
       </c>
-      <c r="C264" t="inlineStr"/>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>1.483M</t>
+        </is>
+      </c>
       <c r="D264" t="inlineStr">
         <is>
           <t>1.493M</t>
@@ -7742,10 +7746,14 @@
           <t>Housing StartsDEC</t>
         </is>
       </c>
-      <c r="C265" t="inlineStr"/>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>1.499M</t>
+        </is>
+      </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>1.289M</t>
+          <t>1.294M</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -7775,7 +7783,11 @@
           <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
-      <c r="C266" t="inlineStr"/>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="D266" t="inlineStr">
         <is>
           <t>5.2%</t>
@@ -7804,10 +7816,14 @@
           <t>Housing Starts MoMDEC</t>
         </is>
       </c>
-      <c r="C267" t="inlineStr"/>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>15.8%</t>
+        </is>
+      </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>-3.7%</t>
         </is>
       </c>
       <c r="E267" t="inlineStr"/>
@@ -9485,22 +9501,26 @@
       <c r="G333" t="inlineStr"/>
     </row>
     <row r="334">
-      <c r="A334" t="inlineStr"/>
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>07:00 PM</t>
+        </is>
+      </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>Chicago Fed National Activity IndexDEC</t>
         </is>
       </c>
       <c r="C334" t="inlineStr"/>
       <c r="D334" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="E334" t="inlineStr"/>
       <c r="F334" t="inlineStr">
         <is>
-          <t>1.6M</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
@@ -9513,20 +9533,53 @@
       <c r="A335" t="inlineStr"/>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="C335" t="inlineStr"/>
       <c r="D335" t="inlineStr">
         <is>
+          <t>1.493M</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr"/>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr"/>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Building Permits MoM FinalDEC</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr"/>
+      <c r="D336" t="inlineStr">
+        <is>
           <t>5.2%</t>
         </is>
       </c>
-      <c r="E335" t="inlineStr"/>
-      <c r="F335" t="inlineStr"/>
-      <c r="G335" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G336"/>
+  <dimension ref="A1:G338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7849,10 +7849,14 @@
           <t>Industrial Production MoMDEC</t>
         </is>
       </c>
-      <c r="C268" t="inlineStr"/>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -7882,10 +7886,14 @@
           <t>Capacity UtilizationDEC</t>
         </is>
       </c>
-      <c r="C269" t="inlineStr"/>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>77.6%</t>
+        </is>
+      </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>76.8%</t>
+          <t>77%</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -7915,10 +7923,14 @@
           <t>Industrial Production YoYDEC</t>
         </is>
       </c>
-      <c r="C270" t="inlineStr"/>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="E270" t="inlineStr"/>
@@ -7944,10 +7956,14 @@
           <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
-      <c r="C271" t="inlineStr"/>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -7977,10 +7993,14 @@
           <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
-      <c r="C272" t="inlineStr"/>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>-1%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="E272" t="inlineStr"/>
@@ -8590,7 +8610,11 @@
           <t>217K</t>
         </is>
       </c>
-      <c r="E299" t="inlineStr"/>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>215K</t>
+        </is>
+      </c>
       <c r="F299" t="inlineStr">
         <is>
           <t>219K</t>
@@ -9530,56 +9554,102 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="inlineStr"/>
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
       <c r="B335" t="inlineStr">
         <is>
+          <t>New Home SalesDEC</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr"/>
+      <c r="D335" t="inlineStr"/>
+      <c r="E335" t="inlineStr"/>
+      <c r="F335" t="inlineStr"/>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>New Home Sales MoMDEC</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr"/>
+      <c r="D336" t="inlineStr"/>
+      <c r="E336" t="inlineStr"/>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr"/>
+      <c r="B337" t="inlineStr">
+        <is>
           <t>Building Permits FinalDEC</t>
         </is>
       </c>
-      <c r="C335" t="inlineStr"/>
-      <c r="D335" t="inlineStr">
+      <c r="C337" t="inlineStr"/>
+      <c r="D337" t="inlineStr">
         <is>
           <t>1.493M</t>
         </is>
       </c>
-      <c r="E335" t="inlineStr"/>
-      <c r="F335" t="inlineStr">
+      <c r="E337" t="inlineStr"/>
+      <c r="F337" t="inlineStr">
         <is>
           <t>1.6M</t>
         </is>
       </c>
-      <c r="G335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr"/>
-      <c r="B336" t="inlineStr">
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr"/>
+      <c r="B338" t="inlineStr">
         <is>
           <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
-      <c r="C336" t="inlineStr"/>
-      <c r="D336" t="inlineStr">
+      <c r="C338" t="inlineStr"/>
+      <c r="D338" t="inlineStr">
         <is>
           <t>5.2%</t>
         </is>
       </c>
-      <c r="E336" t="inlineStr">
+      <c r="E338" t="inlineStr">
         <is>
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="F336" t="inlineStr">
+      <c r="F338" t="inlineStr">
         <is>
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="G336" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G338"/>
+  <dimension ref="A1:G339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8498,7 +8498,11 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="F294" t="inlineStr"/>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="G294" t="inlineStr">
         <is>
           <t>3</t>
@@ -9208,7 +9212,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>4.0M</t>
+          <t>4.1M</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
@@ -9237,7 +9241,7 @@
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr">
         <is>
-          <t>-3.0%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
@@ -9600,24 +9604,24 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="inlineStr"/>
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>09:00 PM</t>
+        </is>
+      </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Building Permits FinalDEC</t>
+          <t>Dallas Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="C337" t="inlineStr"/>
       <c r="D337" t="inlineStr">
         <is>
-          <t>1.493M</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="E337" t="inlineStr"/>
-      <c r="F337" t="inlineStr">
-        <is>
-          <t>1.6M</t>
-        </is>
-      </c>
+      <c r="F337" t="inlineStr"/>
       <c r="G337" t="inlineStr">
         <is>
           <t>2</t>
@@ -9628,26 +9632,51 @@
       <c r="A338" t="inlineStr"/>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalDEC</t>
+          <t>Building Permits FinalDEC</t>
         </is>
       </c>
       <c r="C338" t="inlineStr"/>
       <c r="D338" t="inlineStr">
         <is>
+          <t>1.493M</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr"/>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>1.6M</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr"/>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Building Permits MoM FinalDEC</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr"/>
+      <c r="D339" t="inlineStr">
+        <is>
           <t>5.2%</t>
         </is>
       </c>
-      <c r="E338" t="inlineStr">
+      <c r="E339" t="inlineStr">
         <is>
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="F338" t="inlineStr">
+      <c r="F339" t="inlineStr">
         <is>
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="G338" t="inlineStr">
+      <c r="G339" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G339"/>
+  <dimension ref="A1:G341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9629,56 +9629,98 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" t="inlineStr"/>
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
       <c r="B338" t="inlineStr">
         <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr"/>
+      <c r="D338" t="inlineStr"/>
+      <c r="E338" t="inlineStr"/>
+      <c r="F338" t="inlineStr"/>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr"/>
+      <c r="D339" t="inlineStr"/>
+      <c r="E339" t="inlineStr"/>
+      <c r="F339" t="inlineStr"/>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr"/>
+      <c r="B340" t="inlineStr">
+        <is>
           <t>Building Permits FinalDEC</t>
         </is>
       </c>
-      <c r="C338" t="inlineStr"/>
-      <c r="D338" t="inlineStr">
+      <c r="C340" t="inlineStr"/>
+      <c r="D340" t="inlineStr">
         <is>
           <t>1.493M</t>
         </is>
       </c>
-      <c r="E338" t="inlineStr"/>
-      <c r="F338" t="inlineStr">
+      <c r="E340" t="inlineStr"/>
+      <c r="F340" t="inlineStr">
         <is>
           <t>1.6M</t>
         </is>
       </c>
-      <c r="G338" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr"/>
-      <c r="B339" t="inlineStr">
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr"/>
+      <c r="B341" t="inlineStr">
         <is>
           <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
-      <c r="C339" t="inlineStr"/>
-      <c r="D339" t="inlineStr">
+      <c r="C341" t="inlineStr"/>
+      <c r="D341" t="inlineStr">
         <is>
           <t>5.2%</t>
         </is>
       </c>
-      <c r="E339" t="inlineStr">
+      <c r="E341" t="inlineStr">
         <is>
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="F339" t="inlineStr">
+      <c r="F341" t="inlineStr">
         <is>
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="G339" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G341"/>
+  <dimension ref="A1:G343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8026,7 +8026,11 @@
           <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
-      <c r="C273" t="inlineStr"/>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="D273" t="inlineStr">
         <is>
           <t>480</t>
@@ -8051,7 +8055,11 @@
           <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
-      <c r="C274" t="inlineStr"/>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
       <c r="D274" t="inlineStr">
         <is>
           <t>584</t>
@@ -9485,7 +9493,11 @@
         </is>
       </c>
       <c r="C331" t="inlineStr"/>
-      <c r="D331" t="inlineStr"/>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr"/>
       <c r="G331" t="inlineStr">
@@ -9506,7 +9518,11 @@
         </is>
       </c>
       <c r="C332" t="inlineStr"/>
-      <c r="D332" t="inlineStr"/>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr"/>
       <c r="G332" t="inlineStr">
@@ -9671,54 +9687,96 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="inlineStr"/>
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
       <c r="B340" t="inlineStr">
         <is>
+          <t>2-Year Note Auction</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr"/>
+      <c r="D340" t="inlineStr"/>
+      <c r="E340" t="inlineStr"/>
+      <c r="F340" t="inlineStr"/>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>5-Year Note Auction</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr"/>
+      <c r="D341" t="inlineStr"/>
+      <c r="E341" t="inlineStr"/>
+      <c r="F341" t="inlineStr"/>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr"/>
+      <c r="B342" t="inlineStr">
+        <is>
           <t>Building Permits FinalDEC</t>
         </is>
       </c>
-      <c r="C340" t="inlineStr"/>
-      <c r="D340" t="inlineStr">
+      <c r="C342" t="inlineStr"/>
+      <c r="D342" t="inlineStr">
         <is>
           <t>1.493M</t>
         </is>
       </c>
-      <c r="E340" t="inlineStr"/>
-      <c r="F340" t="inlineStr">
+      <c r="E342" t="inlineStr"/>
+      <c r="F342" t="inlineStr">
         <is>
           <t>1.6M</t>
         </is>
       </c>
-      <c r="G340" t="inlineStr">
+      <c r="G342" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" t="inlineStr"/>
-      <c r="B341" t="inlineStr">
+    <row r="343">
+      <c r="A343" t="inlineStr"/>
+      <c r="B343" t="inlineStr">
         <is>
           <t>Building Permits MoM FinalDEC</t>
         </is>
       </c>
-      <c r="C341" t="inlineStr"/>
-      <c r="D341" t="inlineStr">
+      <c r="C343" t="inlineStr"/>
+      <c r="D343" t="inlineStr">
         <is>
           <t>5.2%</t>
         </is>
       </c>
-      <c r="E341" t="inlineStr">
+      <c r="E343" t="inlineStr">
         <is>
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="F341" t="inlineStr">
+      <c r="F343" t="inlineStr">
         <is>
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="G341" t="inlineStr">
+      <c r="G343" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-27.xlsx
@@ -8097,10 +8097,14 @@
           <t>Net Long-term TIC FlowsNOV</t>
         </is>
       </c>
-      <c r="C276" t="inlineStr"/>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>$79B</t>
+        </is>
+      </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>$152.3B</t>
+          <t>$159.1B</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -8126,10 +8130,14 @@
           <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
-      <c r="C277" t="inlineStr"/>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>$-15.8B</t>
+        </is>
+      </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>$92.1B</t>
+          <t>$92B</t>
         </is>
       </c>
       <c r="E277" t="inlineStr"/>
@@ -8151,10 +8159,14 @@
           <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
-      <c r="C278" t="inlineStr"/>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>$159.9B</t>
+        </is>
+      </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>$203.6B</t>
+          <t>$201.8B</t>
         </is>
       </c>
       <c r="E278" t="inlineStr"/>
